--- a/Config/DatabaseInfo.xlsx
+++ b/Config/DatabaseInfo.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t xml:space="preserve">Dataset_brief_name</t>
   </si>
@@ -64,24 +65,93 @@
     <t xml:space="preserve">Column_additional</t>
   </si>
   <si>
+    <t xml:space="preserve">AmphRep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmphibiansReptiles_Capinha-etal2017.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphibians; Reptiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReplaceCountryNames_AmphRep.r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group; Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAVIA_NaturalSpecCountry.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountryName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PresentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GloNAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon_x_List_GloNAF_withcountrynames.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascular plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardized_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRIIS</t>
   </si>
   <si>
     <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
     <t xml:space="preserve">scientificName</t>
   </si>
   <si>
     <t xml:space="preserve">kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
     <t xml:space="preserve">countryCode</t>
   </si>
   <si>
@@ -89,75 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">island; habitat; establishmentMeans; IsInvasive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRecords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PresentStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmphRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmphibiansReptiles_Capinha-etal2017.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphibians; Reptiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReplaceCountryNames_AmphRep.r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group; Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAVIA_NaturalSpecCountry.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CountryName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GloNAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon_x_List_GloNAF_withcountrynames.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vascular plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standardized_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
   </si>
 </sst>
 </file>
@@ -167,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,6 +189,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -238,12 +246,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,63 +279,63 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -337,111 +349,111 @@
       <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="I6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="L6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -454,4 +466,201 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Config/DatabaseInfo.xlsx
+++ b/Config/DatabaseInfo.xlsx
@@ -86,6 +86,48 @@
     <t xml:space="preserve">Group; Code</t>
   </si>
   <si>
+    <t xml:space="preserve">GloNAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon_x_List_GloNAF_withcountrynames.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascular plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardized_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PresentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAVIA</t>
   </si>
   <si>
@@ -96,48 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">CountryName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRecords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PresentStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GloNAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon_x_List_GloNAF_withcountrynames.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vascular plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standardized_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
   </si>
   <si>
     <t xml:space="preserve">GRIIS</t>
@@ -279,19 +279,19 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="12.5561224489796"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.1479591836735"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
@@ -373,58 +373,58 @@
         <v>23</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -436,7 +436,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>41</v>
@@ -445,7 +445,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>43</v>
@@ -481,14 +481,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="12.5561224489796"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.1479591836735"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
@@ -561,68 +561,68 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,7 +633,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>41</v>
@@ -642,7 +642,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>43</v>

--- a/Config/DatabaseInfo.xlsx
+++ b/Config/DatabaseInfo.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t xml:space="preserve">Dataset_brief_name</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">Column_country_ISO</t>
   </si>
   <si>
+    <t xml:space="preserve">Column_island_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Column_status</t>
   </si>
   <si>
@@ -65,6 +68,30 @@
     <t xml:space="preserve">Column_additional</t>
   </si>
   <si>
+    <t xml:space="preserve">FirstRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PresentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
+  </si>
+  <si>
     <t xml:space="preserve">AmphRep</t>
   </si>
   <si>
@@ -80,9 +107,6 @@
     <t xml:space="preserve">Species</t>
   </si>
   <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
     <t xml:space="preserve">Group; Code</t>
   </si>
   <si>
@@ -107,27 +131,6 @@
     <t xml:space="preserve">status</t>
   </si>
   <si>
-    <t xml:space="preserve">FirstRecords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PresentStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
-  </si>
-  <si>
     <t xml:space="preserve">GAVIA</t>
   </si>
   <si>
@@ -143,19 +146,28 @@
     <t xml:space="preserve">GRIIS</t>
   </si>
   <si>
+    <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019_resend.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientificName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countryCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat; establishmentMeans; IsInvasive</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scientificName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countryCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolved date</t>
   </si>
   <si>
     <t xml:space="preserve">island; habitat; establishmentMeans; IsInvasive</t>
@@ -168,10 +180,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -189,19 +202,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Liberation Mono;Courier New;Nimbus Mono L;DejaVu Sans Mono;Courier"/>
-      <family val="3"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,17 +246,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -276,80 +268,78 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.5255102040816"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -358,103 +348,109 @@
       <c r="I2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="0" t="s">
+      <c r="I5" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="J6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -479,179 +475,177 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.5255102040816"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="L6" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="N6" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Config/DatabaseInfo.xlsx
+++ b/Config/DatabaseInfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t xml:space="preserve">Dataset_brief_name</t>
   </si>
@@ -32,139 +32,148 @@
     <t xml:space="preserve">Taxon_group</t>
   </si>
   <si>
+    <t xml:space="preserve">Column_species_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_scientificName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_region_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_country_ISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_island_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_first_record1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_first_record2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_additional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAVIA_main_data_table.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountryName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntroducedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PresentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmphRep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmphibiansReptiles_Capinha-etal2017.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphibians; Reptiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group; Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GloNAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon_x_List_GloNAF_withcountrynames.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascular plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardized_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019_resend.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientificName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countryCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat; establishmentMeans; IsInvasive</t>
+  </si>
+  <si>
     <t xml:space="preserve">R_countrynames</t>
   </si>
   <si>
-    <t xml:space="preserve">Column_species_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_scientificName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_region_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_country_ISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_island_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_first_record1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_first_record2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_additional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRecords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PresentStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmphRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmphibiansReptiles_Capinha-etal2017.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphibians; Reptiles</t>
-  </si>
-  <si>
     <t xml:space="preserve">ReplaceCountryNames_AmphRep.r</t>
   </si>
   <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group; Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GloNAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon_x_List_GloNAF_withcountrynames.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vascular plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standardized_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAVIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">GAVIA_NaturalSpecCountry.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CountryName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRIIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019_resend.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scientificName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countryCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolved date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat; establishmentMeans; IsInvasive</t>
   </si>
   <si>
     <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019.xlsx</t>
@@ -268,21 +277,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,96 +339,93 @@
       <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -429,27 +437,27 @@
         <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="G6" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>47</v>
       </c>
     </row>
@@ -477,13 +485,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,126 +507,126 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="N2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,10 +634,10 @@
         <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>42</v>
@@ -636,7 +646,7 @@
         <v>43</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>44</v>
@@ -645,7 +655,7 @@
         <v>46</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Config/DatabaseInfo.xlsx
+++ b/Config/DatabaseInfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t xml:space="preserve">Dataset_brief_name</t>
   </si>
@@ -32,145 +32,151 @@
     <t xml:space="preserve">Taxon_group</t>
   </si>
   <si>
+    <t xml:space="preserve">Column_taxon_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_scientificName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_region_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_country_ISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_island_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_first_record1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_first_record2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column_additional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAVIA_main_data_table.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountryName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntroducedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PresentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmphRep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmphibiansReptiles_Capinha-etal2017.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphibians; Reptiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GloNAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon_x_List_GloNAF_withcountrynames.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascular plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardized_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019_resend.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientificName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countryCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat; establishmentMeans; IsInvasive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_countrynames</t>
+  </si>
+  <si>
     <t xml:space="preserve">Column_species_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Column_scientificName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_region_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_country_ISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_island_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_first_record1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_first_record2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column_additional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAVIA_main_data_table.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binomial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CountryName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntroducedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRecords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PresentStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LifeForm; FirstRecord_orig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmphRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmphibiansReptiles_Capinha-etal2017.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphibians; Reptiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
+    <t xml:space="preserve">ReplaceCountryNames_AmphRep.r</t>
   </si>
   <si>
     <t xml:space="preserve">Group; Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GloNAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon_x_List_GloNAF_withcountrynames.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vascular plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standardized_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRIIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019_resend.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scientificName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countryCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolved date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat; establishmentMeans; IsInvasive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_countrynames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReplaceCountryNames_AmphRep.r</t>
   </si>
   <si>
     <t xml:space="preserve">GAVIA_NaturalSpecCountry.xlsx</t>
@@ -280,23 +286,23 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -340,7 +346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
@@ -360,7 +366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>20</v>
       </c>
@@ -386,7 +392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>28</v>
       </c>
@@ -406,7 +412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>33</v>
       </c>
@@ -429,7 +435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>40</v>
       </c>
@@ -485,15 +491,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,7 +516,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>4</v>
@@ -551,7 +557,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>31</v>
@@ -560,7 +566,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
@@ -634,7 +640,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>22</v>
@@ -655,7 +661,7 @@
         <v>46</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Config/DatabaseInfo.xlsx
+++ b/Config/DatabaseInfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t xml:space="preserve">Dataset_brief_name</t>
   </si>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">AmphRep</t>
   </si>
   <si>
-    <t xml:space="preserve">AmphibiansReptiles_Capinha-etal2017_example.xlsx</t>
+    <t xml:space="preserve">AmphibiansReptiles_Capinha-etal2017.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Amphibians; Reptiles</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">GAVIA</t>
   </si>
   <si>
-    <t xml:space="preserve">GAVIA_taxon_region_list_example.xlsx</t>
+    <t xml:space="preserve">GAVIA_taxon_region_list.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Birds</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">GRIIS</t>
   </si>
   <si>
-    <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019_resend_example.xlsx</t>
+    <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019_resend.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">All</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">countryCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Resolved date</t>
+    <t xml:space="preserve">Resolved.date</t>
   </si>
   <si>
     <t xml:space="preserve">establishmentMeans</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">GloNAF</t>
   </si>
   <si>
-    <t xml:space="preserve">GloNAF_taxon_region_list_example.xlsx</t>
+    <t xml:space="preserve">GloNAF_taxon_region_list.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Vascular plants</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">FirstRecords</t>
   </si>
   <si>
-    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries_example.xlsx</t>
+    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Taxon</t>
@@ -206,25 +206,10 @@
     <t xml:space="preserve">FirstRecord_orig</t>
   </si>
   <si>
-    <t xml:space="preserve">AmphibiansReptiles_Capinha-etal2017.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAVIA_taxon_region_list.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRIIS_sTwist_Hanno_Aug92019_resend.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduced_before (year)</t>
   </si>
   <si>
     <t xml:space="preserve">Introduced_after (year)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GloNAF_taxon_region_list.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalAlienSpeciesFirstRecordDatabase_v1.2_withcountries.xlsx</t>
   </si>
 </sst>
 </file>
@@ -337,9 +322,9 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topRight" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,7 +467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>36</v>
       </c>
@@ -618,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>21</v>
@@ -641,7 +626,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -679,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>38</v>
@@ -700,10 +685,10 @@
         <v>43</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>45</v>
@@ -720,7 +705,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>50</v>
@@ -743,7 +728,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>38</v>
